--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>888454.9608210446</v>
+        <v>826168.9201626902</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335414.3901624704</v>
+        <v>189902.9539564203</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10905804.67830212</v>
+        <v>9102620.618728813</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7992412.720658095</v>
+        <v>8897968.84867017</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>247.876721122255</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>212.285385643442</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -740,28 +740,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>156.591242632523</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>74.18006676291769</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>23.354557052668</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,28 +898,28 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>244.5627323611424</v>
+        <v>313.6952596930259</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
-        <v>10.69576364311372</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.395781178313161</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>148.9413660216818</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>244.5627323611424</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>47.37794382058542</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
-        <v>60.28005125577188</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>244.5627323611424</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1098,28 +1098,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>137.0815656650981</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>14.48345164522457</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,31 +1132,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>227.766483451776</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>263.2420339516669</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>263.2420339516669</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852073</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>125.8056357146079</v>
       </c>
     </row>
     <row r="9">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>114.2834788052498</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828962</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703753</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598916</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>77.14804664098608</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>270.6226856612333</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,10 +1387,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>137.0779744069687</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,22 +1417,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,22 +1536,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>66.12354205134254</v>
       </c>
       <c r="I13" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>95.1020344086442</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>184.5808806410313</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1770,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>121.2699779972377</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>273.6361929743166</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>339.0399185806814</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2022,10 +2022,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.1236499844444</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>101.7177065691263</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>343.5781897591197</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>269.5134569480836</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>94.65568569260614</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>343.5529773095826</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>270.6226856612333</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
@@ -2614,7 +2614,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>226.7354334180635</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>307.7676307244754</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>105.7316179494394</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.938553216412018</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>56.97980245040717</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>389.0396295043333</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S30" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T30" t="n">
         <v>196.8897623984489</v>
@@ -2955,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>3.847049572024792</v>
+        <v>83.59830597394803</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -3076,19 +3076,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>175.5255384092734</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>108.6552553742885</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>88.09847704188304</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>48.10637266807393</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>376.184863643924</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>365.7638206809703</v>
       </c>
     </row>
     <row r="36">
@@ -3429,16 +3429,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>70.26541886851844</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>323.9918595228954</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>164.6242057717095</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>43.31785343913925</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>157.0044783406138</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3742,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>275.4805812731082</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>339.0399185806818</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3903,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>88.06311349350432</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>349.0104570710533</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,22 +4024,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>70.48229356082271</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4073,10 +4073,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>11.0042946710585</v>
       </c>
       <c r="G46" t="n">
-        <v>10.43941339835957</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>262.7299197543128</v>
+        <v>722.2873163082938</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>722.2873163082938</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X2" t="n">
-        <v>749.627473042513</v>
+        <v>1112.426648284106</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.1786963984129</v>
+        <v>722.2873163082938</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>305.3006591534979</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>305.3006591534979</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>305.3006591534979</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>305.3006591534979</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>158.7661011803829</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>613.2059550252818</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
-        <v>889.1277951440527</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>889.1277951440527</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>889.1277951440527</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>681.2762949385199</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>473.515996173566</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.0645035650224</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C4" t="n">
-        <v>151.0645035650224</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>151.0645035650224</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>151.0645035650224</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>151.0645035650224</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>151.0645035650224</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>151.0645035650224</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>513.840561024597</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>513.840561024597</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.0645035650224</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>524.4349462307081</v>
+        <v>1722.185086336931</v>
       </c>
       <c r="C5" t="n">
-        <v>524.4349462307081</v>
+        <v>1353.22256939652</v>
       </c>
       <c r="D5" t="n">
-        <v>277.4018832396551</v>
+        <v>1353.22256939652</v>
       </c>
       <c r="E5" t="n">
-        <v>30.36882024860222</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>30.36882024860222</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>30.36882024860222</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>30.36882024860222</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>30.36882024860222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>19.56501858889139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>124.4399474973462</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>306.8231980260855</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
-        <v>526.3662512024591</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>734.8297429586089</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>886.4882690646268</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>978.2509294445696</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>969.7703423957684</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>819.3245181314433</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>819.3245181314433</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>819.3245181314433</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>819.3245181314433</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>572.2914551403903</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>572.2914551403903</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X5" t="n">
-        <v>572.2914551403903</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="Y5" t="n">
-        <v>524.4349462307081</v>
+        <v>1722.185086336931</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.56501858889139</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>19.56501858889139</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>19.56501858889139</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>19.56501858889139</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>19.56501858889139</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>19.56501858889139</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>19.56501858889139</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>19.56501858889139</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>251.2267644261524</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>493.3438694636834</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>493.3438694636834</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>723.7203651970592</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>907.8577401332358</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>978.2509294445696</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>978.2509294445696</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>978.2509294445696</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>917.3619887821737</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
-        <v>917.3619887821737</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>682.2098805504311</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>435.1768175593782</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>227.3253173538453</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.56501858889139</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>19.56501858889139</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>47.85425064936706</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>88.07040250863014</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>132.7649205860522</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>158.0312465334349</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>158.0312465334349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>158.0312465334349</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>158.0312465334349</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>158.0312465334349</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>158.0312465334349</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="U7" t="n">
-        <v>19.56501858889139</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="V7" t="n">
-        <v>19.56501858889139</v>
+        <v>68.57273095695493</v>
       </c>
       <c r="W7" t="n">
-        <v>19.56501858889139</v>
+        <v>68.57273095695493</v>
       </c>
       <c r="X7" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.56501858889139</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>822.9009808048736</v>
+        <v>1964.838184214438</v>
       </c>
       <c r="C8" t="n">
-        <v>556.9999364092505</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D8" t="n">
-        <v>291.0988920136273</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E8" t="n">
-        <v>291.0988920136273</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>291.0988920136273</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>25.19784761800413</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>25.19784761800413</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>25.19784761800413</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613335</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573684</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142364</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098028</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369336</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>950.1371873885148</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806668</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806668</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>1052.968135806668</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>1052.968135806668</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>1052.968135806668</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>1052.968135806668</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V8" t="n">
-        <v>1052.968135806668</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W8" t="n">
-        <v>1052.968135806668</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X8" t="n">
-        <v>1052.968135806668</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="Y8" t="n">
-        <v>1052.968135806668</v>
+        <v>2351.43802427856</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>782.4144152406848</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>782.4144152406848</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>666.9765578616446</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>507.7391028561891</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>361.204544883074</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>222.5237199540885</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>109.6374838154158</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>24.95018035683216</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>158.2210505399124</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>158.2210505399124</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>418.8306641520626</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>679.4402777642129</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>939.853341856705</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>977.3180709271197</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806668</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>954.9030226480438</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>782.4144152406848</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>782.4144152406848</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
-        <v>782.4144152406848</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>782.4144152406848</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>782.4144152406848</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>782.4144152406848</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
-        <v>782.4144152406848</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.05936271613335</v>
+        <v>184.027325963587</v>
       </c>
       <c r="C10" t="n">
-        <v>21.05936271613335</v>
+        <v>184.027325963587</v>
       </c>
       <c r="D10" t="n">
-        <v>21.05936271613335</v>
+        <v>184.027325963587</v>
       </c>
       <c r="E10" t="n">
-        <v>21.05936271613335</v>
+        <v>184.027325963587</v>
       </c>
       <c r="F10" t="n">
-        <v>21.05936271613335</v>
+        <v>184.027325963587</v>
       </c>
       <c r="G10" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613335</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613335</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360305</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955241</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>150.08777394865</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716486</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706538</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>98.98668255551324</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>21.05936271613335</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>21.05936271613335</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>21.05936271613335</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>21.05936271613335</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>21.05936271613335</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W10" t="n">
-        <v>21.05936271613335</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X10" t="n">
-        <v>21.05936271613335</v>
+        <v>184.027325963587</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.05936271613335</v>
+        <v>184.027325963587</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2134.371763268271</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C11" t="n">
-        <v>1765.409246327859</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D11" t="n">
-        <v>1407.143547721109</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E11" t="n">
-        <v>1021.355295122865</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F11" t="n">
-        <v>610.3693903332571</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G11" t="n">
-        <v>192.405582231444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U11" t="n">
-        <v>2520.971603332393</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V11" t="n">
-        <v>2520.971603332393</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W11" t="n">
-        <v>2520.971603332393</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X11" t="n">
-        <v>2520.971603332393</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y11" t="n">
-        <v>2520.971603332393</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
         <v>221.4284102424006</v>
@@ -5117,46 +5117,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064344</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064344</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064344</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="E13" t="n">
-        <v>709.5665374816297</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837193</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220517</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064344</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064344</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064344</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.9054987607761</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="C14" t="n">
-        <v>53.94298182036445</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="D14" t="n">
-        <v>53.94298182036445</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="E14" t="n">
-        <v>53.94298182036445</v>
+        <v>978.9553557306176</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036445</v>
+        <v>567.9694509410101</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>150.005642839197</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>150.005642839197</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
@@ -5281,10 +5281,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5305,25 +5305,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T14" t="n">
-        <v>2510.703757037383</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U14" t="n">
-        <v>2256.941971675474</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V14" t="n">
-        <v>1925.879084331904</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W14" t="n">
-        <v>1573.11042906179</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X14" t="n">
-        <v>1199.64467080071</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y14" t="n">
-        <v>809.505338824898</v>
+        <v>1364.743608328862</v>
       </c>
     </row>
     <row r="15">
@@ -5357,19 +5357,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
         <v>2188.831293537797</v>
@@ -5381,7 +5381,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
         <v>2488.762748073963</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064344</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064344</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064344</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E16" t="n">
-        <v>709.5665374816297</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5466,22 +5466,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064344</v>
+        <v>605.6340569364974</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064344</v>
+        <v>605.6340569364974</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064344</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064344</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064344</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064344</v>
+        <v>350.9495687306105</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1920.409918978289</v>
+        <v>1998.219284210995</v>
       </c>
       <c r="C17" t="n">
-        <v>1551.447402037877</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D17" t="n">
-        <v>1193.181703431127</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E17" t="n">
-        <v>807.3934508328825</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F17" t="n">
-        <v>396.407546043275</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q17" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X17" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2307.009759042411</v>
+        <v>1998.219284210995</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H18" t="n">
         <v>115.9856282673424</v>
@@ -5615,28 +5615,28 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>365.6939024587809</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C19" t="n">
-        <v>365.6939024587809</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D19" t="n">
-        <v>365.6939024587809</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E19" t="n">
-        <v>365.6939024587809</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F19" t="n">
-        <v>365.6939024587809</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G19" t="n">
-        <v>196.6941021971134</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>196.6941021971134</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
         <v>53.94298182036445</v>
@@ -5679,46 +5679,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V19" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W19" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X19" t="n">
-        <v>365.6939024587809</v>
+        <v>625.3838260558018</v>
       </c>
       <c r="Y19" t="n">
-        <v>365.6939024587809</v>
+        <v>404.5912469122717</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1491.915471247702</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C20" t="n">
-        <v>1122.952954307291</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D20" t="n">
-        <v>1122.952954307291</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E20" t="n">
-        <v>737.1647017090463</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
-        <v>326.1787969194388</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
         <v>53.94298182036445</v>
@@ -5752,10 +5752,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
         <v>881.2824271224075</v>
@@ -5764,7 +5764,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5779,25 +5779,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U20" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V20" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W20" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X20" t="n">
-        <v>2268.654643287636</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y20" t="n">
-        <v>1878.515311311824</v>
+        <v>1229.941371236149</v>
       </c>
     </row>
     <row r="21">
@@ -5807,67 +5807,67 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2287.511075289965</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>2118.574892362058</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U22" t="n">
-        <v>2697.149091018222</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V22" t="n">
-        <v>2697.149091018222</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W22" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X22" t="n">
-        <v>2469.159540120205</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y22" t="n">
-        <v>2469.159540120205</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1139.146815977588</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C23" t="n">
-        <v>1139.146815977588</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D23" t="n">
-        <v>1139.146815977588</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E23" t="n">
-        <v>1139.146815977588</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F23" t="n">
-        <v>728.1609111879804</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G23" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6016,25 +6016,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U23" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V23" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W23" t="n">
-        <v>2289.351746278601</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X23" t="n">
-        <v>1915.885988017521</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="Y23" t="n">
-        <v>1525.74665604171</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
@@ -6071,10 +6071,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
         <v>1194.968834417902</v>
@@ -6089,28 +6089,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="G25" t="n">
         <v>53.94298182036445</v>
@@ -6183,16 +6183,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>882.8926947117852</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="C26" t="n">
-        <v>882.8926947117852</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="D26" t="n">
-        <v>882.8926947117852</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117852</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T26" t="n">
-        <v>2478.514423990286</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U26" t="n">
-        <v>2224.752638628377</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V26" t="n">
-        <v>1995.726948307101</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W26" t="n">
-        <v>1642.958293036987</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X26" t="n">
-        <v>1269.492534775907</v>
+        <v>936.2491605982752</v>
       </c>
       <c r="Y26" t="n">
-        <v>1269.492534775907</v>
+        <v>625.3727659270879</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
@@ -6311,46 +6311,46 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U27" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2287.511075289966</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C28" t="n">
-        <v>2287.511075289966</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D28" t="n">
-        <v>2287.511075289966</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E28" t="n">
-        <v>2287.511075289966</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F28" t="n">
-        <v>2287.511075289966</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G28" t="n">
-        <v>2287.511075289966</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H28" t="n">
-        <v>2129.762702722496</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>2697.149091018223</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U28" t="n">
-        <v>2697.149091018223</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="V28" t="n">
-        <v>2697.149091018223</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="W28" t="n">
-        <v>2697.149091018223</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="X28" t="n">
-        <v>2469.159540120206</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y28" t="n">
-        <v>2469.159540120206</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1970.914677487028</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="C29" t="n">
-        <v>1601.952160546617</v>
+        <v>880.7499412272348</v>
       </c>
       <c r="D29" t="n">
-        <v>1243.686461939866</v>
+        <v>522.4842426204843</v>
       </c>
       <c r="E29" t="n">
-        <v>857.8982093416219</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F29" t="n">
-        <v>446.9123045520143</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W29" t="n">
-        <v>2344.380435748108</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X29" t="n">
-        <v>1970.914677487028</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y29" t="n">
-        <v>1970.914677487028</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="30">
@@ -6539,16 +6539,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M30" t="n">
         <v>1194.968834417902</v>
@@ -6563,10 +6563,10 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
         <v>2488.762748073964</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>365.6939024587809</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="C31" t="n">
-        <v>365.6939024587809</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="D31" t="n">
-        <v>215.5772630464452</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="E31" t="n">
-        <v>215.5772630464452</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="F31" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G31" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6630,19 +6630,19 @@
         <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R31" t="n">
         <v>579.9823256406182</v>
@@ -6651,22 +6651,22 @@
         <v>365.6939024587809</v>
       </c>
       <c r="T31" t="n">
-        <v>365.6939024587809</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U31" t="n">
-        <v>365.6939024587809</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="V31" t="n">
-        <v>365.6939024587809</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="W31" t="n">
-        <v>365.6939024587809</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="X31" t="n">
-        <v>365.6939024587809</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="Y31" t="n">
-        <v>365.6939024587809</v>
+        <v>138.3857151273827</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1210.087414675782</v>
+        <v>1905.140074719376</v>
       </c>
       <c r="C32" t="n">
-        <v>1210.087414675782</v>
+        <v>1536.177557778964</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.087414675782</v>
+        <v>1177.911859172214</v>
       </c>
       <c r="E32" t="n">
-        <v>1210.087414675782</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F32" t="n">
-        <v>799.1015098861748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G32" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2301.215900344554</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V32" t="n">
-        <v>1970.153013000984</v>
+        <v>2278.605832980455</v>
       </c>
       <c r="W32" t="n">
-        <v>1970.153013000984</v>
+        <v>2278.605832980455</v>
       </c>
       <c r="X32" t="n">
-        <v>1596.687254739904</v>
+        <v>1905.140074719376</v>
       </c>
       <c r="Y32" t="n">
-        <v>1596.687254739904</v>
+        <v>1905.140074719376</v>
       </c>
     </row>
     <row r="33">
@@ -6776,19 +6776,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>204.0596212327002</v>
+        <v>293.0479818810669</v>
       </c>
       <c r="C34" t="n">
-        <v>204.0596212327002</v>
+        <v>293.0479818810669</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>142.9313424687312</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>142.9313424687312</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6867,43 +6867,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R34" t="n">
-        <v>679.5366885821171</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S34" t="n">
-        <v>679.5366885821171</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T34" t="n">
-        <v>679.5366885821171</v>
+        <v>513.840561024597</v>
       </c>
       <c r="U34" t="n">
-        <v>679.5366885821171</v>
+        <v>513.840561024597</v>
       </c>
       <c r="V34" t="n">
-        <v>424.8522003762303</v>
+        <v>513.840561024597</v>
       </c>
       <c r="W34" t="n">
-        <v>424.8522003762303</v>
+        <v>513.840561024597</v>
       </c>
       <c r="X34" t="n">
-        <v>424.8522003762303</v>
+        <v>513.840561024597</v>
       </c>
       <c r="Y34" t="n">
-        <v>204.0596212327002</v>
+        <v>293.0479818810669</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1546.944160717209</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="C35" t="n">
-        <v>1177.981643776797</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D35" t="n">
-        <v>819.715945170047</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E35" t="n">
-        <v>433.9276925718028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F35" t="n">
-        <v>433.9276925718028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G35" t="n">
         <v>53.94298182036445</v>
@@ -6937,19 +6937,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6967,22 +6967,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018222</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X35" t="n">
-        <v>2323.683332757143</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y35" t="n">
-        <v>1933.544000781331</v>
+        <v>797.9969330253591</v>
       </c>
     </row>
     <row r="36">
@@ -6998,34 +6998,34 @@
         <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204941</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
         <v>1748.695370517453</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>667.8624625746712</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="C37" t="n">
-        <v>667.8624625746712</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="D37" t="n">
-        <v>517.7458231623355</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="E37" t="n">
-        <v>369.8327295799424</v>
+        <v>124.9181523946255</v>
       </c>
       <c r="F37" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
         <v>53.94298182036445</v>
@@ -7119,28 +7119,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>667.8624625746712</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>667.8624625746712</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U37" t="n">
-        <v>667.8624625746712</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V37" t="n">
-        <v>667.8624625746712</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W37" t="n">
-        <v>667.8624625746712</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X37" t="n">
-        <v>667.8624625746712</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="Y37" t="n">
-        <v>667.8624625746712</v>
+        <v>272.8312459770186</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1546.944160717209</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C38" t="n">
-        <v>1177.981643776797</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D38" t="n">
-        <v>1177.981643776797</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E38" t="n">
-        <v>792.1933911785532</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F38" t="n">
-        <v>381.2074863889456</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
         <v>881.2824271224075</v>
@@ -7201,25 +7201,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="X38" t="n">
-        <v>2323.683332757143</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y38" t="n">
-        <v>1933.544000781331</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7265,13 +7265,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2066.718496146435</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C40" t="n">
-        <v>2022.963088632153</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D40" t="n">
-        <v>2022.963088632153</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E40" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>2697.149091018222</v>
+        <v>569.538602044198</v>
       </c>
       <c r="U40" t="n">
-        <v>2697.149091018222</v>
+        <v>569.538602044198</v>
       </c>
       <c r="V40" t="n">
-        <v>2697.149091018222</v>
+        <v>569.538602044198</v>
       </c>
       <c r="W40" t="n">
-        <v>2697.149091018222</v>
+        <v>569.538602044198</v>
       </c>
       <c r="X40" t="n">
-        <v>2469.159540120205</v>
+        <v>569.538602044198</v>
       </c>
       <c r="Y40" t="n">
-        <v>2248.366960976675</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1920.409918978289</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C41" t="n">
-        <v>1551.447402037878</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D41" t="n">
-        <v>1193.181703431127</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E41" t="n">
-        <v>807.393450832883</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
-        <v>396.4075460432754</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
         <v>53.94298182036446</v>
@@ -7411,13 +7411,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7453,10 +7453,10 @@
         <v>2697.149091018223</v>
       </c>
       <c r="X41" t="n">
-        <v>2697.149091018223</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y41" t="n">
-        <v>2307.009759042411</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>290.8087152951862</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="C43" t="n">
-        <v>290.8087152951862</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="D43" t="n">
-        <v>290.8087152951862</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E43" t="n">
-        <v>142.8956217127931</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F43" t="n">
-        <v>142.8956217127931</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036446</v>
@@ -7575,46 +7575,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U43" t="n">
-        <v>290.8087152951862</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V43" t="n">
-        <v>290.8087152951862</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W43" t="n">
-        <v>290.8087152951862</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X43" t="n">
-        <v>290.8087152951862</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y43" t="n">
-        <v>290.8087152951862</v>
+        <v>149.5382038240418</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1166.959449965771</v>
+        <v>764.7444956504012</v>
       </c>
       <c r="C44" t="n">
-        <v>797.9969330253592</v>
+        <v>764.7444956504012</v>
       </c>
       <c r="D44" t="n">
-        <v>439.7312344186087</v>
+        <v>406.4787970436507</v>
       </c>
       <c r="E44" t="n">
-        <v>53.94298182036446</v>
+        <v>406.4787970436507</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036446</v>
+        <v>406.4787970436507</v>
       </c>
       <c r="G44" t="n">
         <v>53.94298182036446</v>
@@ -7648,13 +7648,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7663,7 +7663,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P44" t="n">
         <v>2544.691559791253</v>
@@ -7675,25 +7675,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T44" t="n">
-        <v>2570.926165628693</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U44" t="n">
-        <v>2317.164380266785</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V44" t="n">
-        <v>2317.164380266785</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W44" t="n">
-        <v>2317.164380266785</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="X44" t="n">
-        <v>1943.698622005704</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="Y44" t="n">
-        <v>1553.559290029893</v>
+        <v>764.7444956504012</v>
       </c>
     </row>
     <row r="45">
@@ -7718,7 +7718,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
@@ -7730,10 +7730,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M45" t="n">
         <v>1313.210296315296</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2033.507950650698</v>
+        <v>65.05843098304982</v>
       </c>
       <c r="C46" t="n">
-        <v>2033.507950650698</v>
+        <v>65.05843098304982</v>
       </c>
       <c r="D46" t="n">
-        <v>2033.507950650698</v>
+        <v>65.05843098304982</v>
       </c>
       <c r="E46" t="n">
-        <v>2033.507950650698</v>
+        <v>65.05843098304982</v>
       </c>
       <c r="F46" t="n">
-        <v>2033.507950650698</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018223</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="T46" t="n">
-        <v>2469.840903686825</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="U46" t="n">
-        <v>2469.840903686825</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="V46" t="n">
-        <v>2215.156415480938</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="W46" t="n">
-        <v>2215.156415480938</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="X46" t="n">
-        <v>2215.156415480938</v>
+        <v>285.8510101265799</v>
       </c>
       <c r="Y46" t="n">
-        <v>2215.156415480938</v>
+        <v>65.05843098304982</v>
       </c>
     </row>
   </sheetData>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>312.5030352242461</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>136.5653954824675</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>384.6945110063436</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>129.2864630672354</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>373.4196241640158</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,25 +8531,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>127.8064787429919</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>392.8337743093849</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>381.7094952808121</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>162.3651468139937</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8786,7 +8786,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9020,7 +9020,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9184,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,13 +9719,13 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050811</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>359.906554245176</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504507</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>359.906554245176</v>
+        <v>359.9065542451758</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>106.8063204984279</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22561,16 +22561,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>157.445715035027</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22628,13 +22628,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -22643,10 +22643,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>151.7613153180571</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -22716,19 +22716,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>140.6136200195524</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,25 +22749,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>228.78308627116</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22786,25 +22786,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>110.1203092595406</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>137.3676377111194</v>
+        <v>68.23511037923589</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>415.2879682170718</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>339.3235460419765</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>209.9064962068211</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,19 +22831,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>208.6835142066282</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0311969618593</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3444713639914</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>83.18952610899251</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>338.8599948354682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3356148920818</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.1591249337519</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.12455904281175</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,22 +22910,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>99.6672001609758</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.5363898835276</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>139.852825740947</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9408621947163</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>7.132250799777211</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9843543597988</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>162.1682702466266</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>155.2512431493756</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>92.89079271141465</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
-        <v>21.49978743611831</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,31 +22983,31 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.920177260816417</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>85.60728995481479</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>176.9955073465141</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>223.9011423785076</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9172826158254</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>149.2371023278295</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>211.2262037438126</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>154.9673582117046</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>102.0308578193407</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>91.44100766901607</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>151.9681874521645</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644701</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>260.4323029414458</v>
       </c>
     </row>
     <row r="9">
@@ -23099,13 +23099,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>33.16158675938894</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -23153,22 +23153,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>38.52630155726061</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022107</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839141</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871611</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23223,25 +23223,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>98.27937439571028</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>111.3076844110284</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>186.8447983573884</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,22 +23424,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>90.04734679045261</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>56.82928183621705</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>31.86743971662654</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23658,25 +23658,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>103.7651274608466</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>91.63669879669095</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>74.74425144011354</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
@@ -23788,7 +23788,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23910,10 +23910,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>38.84197180789383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
@@ -23955,10 +23955,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>123.9919488199109</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>39.15565190436087</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>144.2707130727114</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>53.95978732560621</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24150,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24183,16 +24183,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>70.23119271121237</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>99.1084150172357</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>65.52911452950187</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24423,16 +24423,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>96.92615468724711</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24454,7 +24454,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,10 +24490,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>101.0168250520715</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>78.47030793157819</v>
       </c>
     </row>
     <row r="27">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>29.2340038428988</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
         <v>45.199959188537</v>
@@ -24654,10 +24654,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>284.3433210255657</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24666,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24688,13 +24688,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>324.9505676218546</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>24.74454051646165</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24739,7 +24739,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24843,19 +24843,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>141.5739984509065</v>
+        <v>61.82274204898322</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923382</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24964,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>75.6986290990159</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>219.0970030958464</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>57.3225709810482</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -25122,10 +25122,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>98.55881931208393</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
@@ -25134,7 +25134,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>37.59930637687103</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25207,22 +25207,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>20.47411797508329</v>
       </c>
     </row>
     <row r="36">
@@ -25317,16 +25317,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>75.15562915441281</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25359,13 +25359,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>87.00133556471249</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>89.79231049789962</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25441,7 +25441,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
@@ -25456,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>205.1068949067595</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>123.9289676594886</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25602,7 +25602,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>68.03062711747043</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>89.79231049789934</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>74.74425144011315</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25693,7 +25693,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25791,16 +25791,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>53.97620323457181</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>79.24668876554659</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25809,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>64.77371294974171</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>145.9660267968351</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26034,10 +26034,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>134.4167533518727</v>
       </c>
       <c r="G46" t="n">
-        <v>156.8703888606913</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26046,7 +26046,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>448752.9057247414</v>
+        <v>769512.6051115737</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>451773.1829701429</v>
+        <v>769512.6051115738</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>467445.7869376001</v>
+        <v>769512.6051115734</v>
       </c>
     </row>
     <row r="5">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>769512.6051115735</v>
+        <v>769512.6051115737</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>769512.6051115738</v>
+        <v>769512.6051115737</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>769512.6051115738</v>
+        <v>769512.6051115739</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>769512.6051115735</v>
+        <v>769512.6051115738</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>769512.6051115737</v>
+        <v>769512.6051115738</v>
       </c>
     </row>
     <row r="16">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149544.6052781992</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="C2" t="n">
-        <v>150588.1755146548</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="D2" t="n">
-        <v>156006.135526498</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="E2" t="n">
         <v>260237.3490141817</v>
@@ -26328,34 +26328,34 @@
         <v>260237.3490141816</v>
       </c>
       <c r="G2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="H2" t="n">
         <v>260237.3490141816</v>
       </c>
       <c r="I2" t="n">
-        <v>260237.3490141818</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="J2" t="n">
-        <v>260237.3490141817</v>
+        <v>260237.3490141816</v>
       </c>
       <c r="K2" t="n">
         <v>260237.3490141816</v>
       </c>
       <c r="L2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="M2" t="n">
         <v>260237.3490141816</v>
       </c>
       <c r="N2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141815</v>
       </c>
       <c r="O2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141817</v>
       </c>
       <c r="P2" t="n">
-        <v>260237.3490141816</v>
+        <v>260237.3490141817</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
-        <v>4491.824968753434</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>22364.98695753564</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835743</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>913.2558024571108</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4727.563118847434</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.1176906351</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16914.68964098084</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="C4" t="n">
-        <v>16922.92270143587</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="D4" t="n">
-        <v>16958.01308307726</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="E4" t="n">
         <v>18228.92756966326</v>
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
-        <v>48577.10433863014</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683336</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
         <v>49231.47806340946</v>
@@ -26493,13 +26493,13 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="K5" t="n">
         <v>49231.47806340947</v>
       </c>
-      <c r="K5" t="n">
-        <v>49231.47806340946</v>
-      </c>
       <c r="L5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340946</v>
@@ -26511,7 +26511,7 @@
         <v>49231.47806340947</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340948</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3579.215341908923</v>
+        <v>-436886.9495792548</v>
       </c>
       <c r="C6" t="n">
-        <v>80596.32350583532</v>
+        <v>153080.9296352897</v>
       </c>
       <c r="D6" t="n">
-        <v>66548.72807905175</v>
+        <v>153080.9296352897</v>
       </c>
       <c r="E6" t="n">
-        <v>-214943.4943024653</v>
+        <v>186708.5296352897</v>
       </c>
       <c r="F6" t="n">
-        <v>192776.9433811089</v>
+        <v>186708.5296352897</v>
       </c>
       <c r="G6" t="n">
-        <v>192776.9433811089</v>
+        <v>186708.5296352897</v>
       </c>
       <c r="H6" t="n">
-        <v>192776.9433811088</v>
+        <v>186708.5296352897</v>
       </c>
       <c r="I6" t="n">
-        <v>192776.943381109</v>
+        <v>186708.5296352897</v>
       </c>
       <c r="J6" t="n">
-        <v>129717.0007820027</v>
+        <v>10285.3104426967</v>
       </c>
       <c r="K6" t="n">
-        <v>191863.6875786518</v>
+        <v>186708.5296352897</v>
       </c>
       <c r="L6" t="n">
-        <v>188049.3802622614</v>
+        <v>186708.5296352897</v>
       </c>
       <c r="M6" t="n">
-        <v>90342.82569047376</v>
+        <v>186708.5296352897</v>
       </c>
       <c r="N6" t="n">
-        <v>192776.9433811089</v>
+        <v>186708.5296352895</v>
       </c>
       <c r="O6" t="n">
-        <v>192776.9433811088</v>
+        <v>186708.5296352898</v>
       </c>
       <c r="P6" t="n">
-        <v>192776.9433811089</v>
+        <v>186708.5296352898</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678962</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26776,10 +26776,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
     </row>
     <row r="4">
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
-        <v>244.5627323611424</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516669</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545556</v>
@@ -26813,19 +26813,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="K4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="K4" t="n">
-        <v>674.2872727545556</v>
-      </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545557</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19.3395197935473</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>354.7302815302971</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>18.67930159052449</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>411.0452388028888</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>3.548443483483226</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.67930159052449</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028888</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.67930159052449</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028888</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01476929806328569</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1512560737906247</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5693933635848223</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
-        <v>1.253525711498795</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>1.878710098517679</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>2.330706004121959</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>2.593359508554916</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>2.635322776677227</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>2.488460569060429</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>2.123843523123063</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.594918036231644</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9277519194678708</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3365553796171231</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>0.06465260227203316</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001181543845062855</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007902271128860838</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07631930274452442</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2720738086033228</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>1.276043491891533</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>1.715797948395859</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>2.002255276817064</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>2.05524901609789</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>1.880151324242605</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>1.508987194773435</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.008717977782306</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4906339916673424</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1467812203102001</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03185169810273293</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.000519886258477687</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006624998659945165</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05890226081296706</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1992317778827147</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4683874052581232</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7697043897645381</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9849566189522114</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>1.038498653576677</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>1.013805476753246</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>0.936413446952977</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8012634742900949</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5547532968795902</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2978840306553526</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1154556584646807</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02830681245612934</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0003613635632697367</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367678</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>0.94748062488878</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381035002</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760444</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324508</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455499</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895175</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019332</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841738</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060786</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544932</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679592</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332537</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318453</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.00740128890429414</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498144</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104787</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>1.704292963125458</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246559</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750314</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688226</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430034</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418809</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104034</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277523079</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210613</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605603</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523959</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467891</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00325661075756457</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994848</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259058</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047542</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166741</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>6.169850171471433</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988742</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>6.35056181584803</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150903</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131949</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705232</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473138</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>0.723223846075011</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588708</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815374</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31758,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31785,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31858,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31934,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -32232,19 +32232,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32259,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32408,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32469,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32496,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32645,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -34128,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34155,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34304,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34365,43 +34365,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P44" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K45" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L45" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M45" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N45" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O45" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,25 +34541,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>169.9067907798016</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
-        <v>27.59002526031614</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
-        <v>39.58387696184059</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N4" t="n">
-        <v>44.13217237922859</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>24.58512791403967</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>105.9342716247019</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>184.2255055845852</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>221.7606597741147</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>210.5691835920705</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>153.1904304101191</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>92.68955593933616</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>234.0017634719808</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>244.5627323611424</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>232.7035310438139</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>185.9973484203803</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>71.10423162760989</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
-        <v>28.57498187926835</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>40.62237561541726</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>45.14597785598184</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>25.52154136099265</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194293</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>196.4945358150182</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945115</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455866</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>166.289893789476</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>103.869644866821</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.930118828988702</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>134.6170405889699</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>263.2420339516669</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>263.2420339516669</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833254</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>37.84316067718657</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>76.41420694903819</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178757</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082933</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507662</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919058</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025437</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35500,13 +35500,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35740,7 +35740,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735647</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35904,7 +35904,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35974,13 +35974,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
         <v>130.3926104730631</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36211,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N24" t="n">
         <v>559.3197334338902</v>
@@ -36679,7 +36679,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730077</v>
       </c>
       <c r="M27" t="n">
         <v>529.4413268262938</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M30" t="n">
         <v>529.4413268262938</v>
@@ -37150,7 +37150,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37159,7 +37159,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
@@ -37396,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355128</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37633,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37870,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P44" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L45" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355128</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
         <v>173.8110948137341</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38189,10 +38189,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O46" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
